--- a/00_KorREFramework/Data/Input/TransactionData.xlsx
+++ b/00_KorREFramework/Data/Input/TransactionData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dexter\Source\ALPACO8\RPA_Example\00_NonQueue_REFramework\Data\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dexter\Source\ALPACO8\RPA_Example\00_KorREFramework\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E7AE12-558C-4DFB-87B7-8437FCBFF135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63043D54-57B8-4B8A-B9D0-7CC6532F8019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6435" yWindow="-20625" windowWidth="17895" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19290" yWindow="-11760" windowWidth="17895" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="transaction" sheetId="1" r:id="rId1"/>
@@ -407,7 +407,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -440,7 +440,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -448,7 +448,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -456,7 +456,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -464,7 +464,7 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -480,7 +480,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
